--- a/biology/Médecine/LOINC/LOINC.xlsx
+++ b/biology/Médecine/LOINC/LOINC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Logical Observation Identifiers Names &amp; Codes, plus connue sous son sigle LOINC, est une terminologie de référence internationale pour le codage des observations et des documents électroniques, publiée par le Regenstrief Institute, une organisation de recherche médicale américaine à but non lucratif.
 Elle a été approuvée par l'American Clinical Laboratory Association et le College of American Pathologists.
@@ -512,7 +524,9 @@
           <t>Contexte historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été créée en 1994 en réponse à une demande d'accès public et gratuit à une base électronique codant des soins cliniques et des résultats de laboratoire.
 Ce jeu de valeurs est en maintenance régulière depuis juin 2011. L’ASIP-Santé a confié la maîtrise d’œuvre de cette maintenance à un consortium regroupant l’Assistance Publique Hôpitaux de Paris (AP-HP), les sociétés Vidal et Mondéca, et la Société Française d’Informatique de Laboratoire (SFIL). La périodicité des versions est semestrielle.
@@ -545,7 +559,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>LOINC a été créé à l'origine en 1994 afin d'avoir une base de référence publique et gratuite. Il  est maintenu régulièrement depuis juin 2011.
 En France:
@@ -579,9 +595,11 @@
           <t>Format</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Un identifiant unique est donnée à chaque élément de la base LOINC[1]. La base contient actuellement plus de 91 000 termes.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un identifiant unique est donnée à chaque élément de la base LOINC. La base contient actuellement plus de 91 000 termes.
 Chaque code est composé de six parties :
 Composant : ce qui est mesuré, évalué ou observé (exemple: urée, ...)
 Type de propriété ou caractéristique mesurée (longueur, masse, volume, moment)
